--- a/data/trans_orig/P21_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>78159</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63143</v>
+        <v>62312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96329</v>
+        <v>95362</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.164970098822274</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1332760186014306</v>
+        <v>0.1315210306594261</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.203321247067505</v>
+        <v>0.2012797366085918</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -765,19 +765,19 @@
         <v>68552</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55209</v>
+        <v>54621</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83582</v>
+        <v>85070</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2235305137392606</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1800219795895104</v>
+        <v>0.1781056003272295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2725377908386123</v>
+        <v>0.2773916376472504</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>140</v>
@@ -786,19 +786,19 @@
         <v>146711</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124943</v>
+        <v>125618</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169402</v>
+        <v>170902</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1879814045714647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.160089298450319</v>
+        <v>0.1609543958457431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.217054402875346</v>
+        <v>0.2189772515450196</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>395617</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>377447</v>
+        <v>378414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>410633</v>
+        <v>411464</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.835029901177726</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7966787529324949</v>
+        <v>0.7987202633914077</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8667239813985693</v>
+        <v>0.8684789693405739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -836,19 +836,19 @@
         <v>238128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>223098</v>
+        <v>221610</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251471</v>
+        <v>252059</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7764694862607394</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7274622091613877</v>
+        <v>0.7226083623527495</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8199780204104896</v>
+        <v>0.8218943996727703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>613</v>
@@ -857,19 +857,19 @@
         <v>633746</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>611055</v>
+        <v>609555</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>655514</v>
+        <v>654839</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8120185954285353</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7829455971246542</v>
+        <v>0.7810227484549804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8399107015496821</v>
+        <v>0.8390456041542569</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>66854</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51882</v>
+        <v>52621</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85128</v>
+        <v>83142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.182637413585268</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1417339894355163</v>
+        <v>0.1437546649752975</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2325577211392123</v>
+        <v>0.227132922668402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -982,19 +982,19 @@
         <v>91222</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75272</v>
+        <v>76010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107933</v>
+        <v>109581</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2459321366695191</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2029323230145667</v>
+        <v>0.2049196553391711</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2909840554888999</v>
+        <v>0.295425899460559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>154</v>
@@ -1003,19 +1003,19 @@
         <v>158077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>137128</v>
+        <v>135453</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>179907</v>
+        <v>179985</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2144941191616534</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1860692912609834</v>
+        <v>0.1837956973087897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2441157410104404</v>
+        <v>0.2442221516291618</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>299195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>280921</v>
+        <v>282907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>314167</v>
+        <v>313428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.817362586414732</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7674422788607871</v>
+        <v>0.7728670773315972</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8582660105644832</v>
+        <v>0.8562453350247021</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>272</v>
@@ -1053,19 +1053,19 @@
         <v>279702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262991</v>
+        <v>261343</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>295652</v>
+        <v>294914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7540678633304809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7090159445111005</v>
+        <v>0.704574100539441</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7970676769854339</v>
+        <v>0.7950803446608289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>557</v>
@@ -1074,19 +1074,19 @@
         <v>578897</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>557067</v>
+        <v>556989</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>599846</v>
+        <v>601521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7855058808383466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7558842589895596</v>
+        <v>0.7557778483708381</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8139307087390166</v>
+        <v>0.81620430269121</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>96404</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80146</v>
+        <v>77952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114324</v>
+        <v>113295</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1777400768950144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1477652632522815</v>
+        <v>0.1437196710195733</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2107791643737824</v>
+        <v>0.2088818201766119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1199,19 +1199,19 @@
         <v>46719</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35864</v>
+        <v>35759</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59371</v>
+        <v>59167</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2784494960091485</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2137507470338883</v>
+        <v>0.2131266519049739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3538601825221243</v>
+        <v>0.352642373745757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -1220,19 +1220,19 @@
         <v>143123</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>123258</v>
+        <v>122741</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163561</v>
+        <v>164563</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.201533245592729</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1735616316796775</v>
+        <v>0.1728331657548079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2303120115782053</v>
+        <v>0.2317233759759724</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>445985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>428065</v>
+        <v>429094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>462243</v>
+        <v>464437</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8222599231049855</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7892208356262175</v>
+        <v>0.7911181798233881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8522347367477184</v>
+        <v>0.8562803289804266</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -1270,19 +1270,19 @@
         <v>121063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108411</v>
+        <v>108615</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131918</v>
+        <v>132023</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7215505039908514</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6461398174778757</v>
+        <v>0.647357626254243</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7862492529661117</v>
+        <v>0.7868733480950262</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>554</v>
@@ -1291,19 +1291,19 @@
         <v>567048</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>546610</v>
+        <v>545608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586913</v>
+        <v>587430</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.798466754407271</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7696879884217948</v>
+        <v>0.7682766240240275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8264383683203225</v>
+        <v>0.8271668342451922</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>225029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>199120</v>
+        <v>197179</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>251688</v>
+        <v>254511</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1817191688954514</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1607969482652281</v>
+        <v>0.1592295467485585</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2032472285343057</v>
+        <v>0.2055270084223977</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -1416,19 +1416,19 @@
         <v>188449</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>165089</v>
+        <v>166652</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>213326</v>
+        <v>212739</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2638294968641082</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2311250631626326</v>
+        <v>0.2333130908576086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2986561509549084</v>
+        <v>0.297834834864405</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>407</v>
@@ -1437,19 +1437,19 @@
         <v>413479</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>378120</v>
+        <v>381454</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>451171</v>
+        <v>450229</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.211755843115753</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1936473155126375</v>
+        <v>0.1953551800435769</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2310592139659476</v>
+        <v>0.2305766301285677</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1013305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>986646</v>
+        <v>983823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1039214</v>
+        <v>1041155</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8182808311045485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7967527714656943</v>
+        <v>0.7944729915776023</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8392030517347719</v>
+        <v>0.8407704532514415</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>508</v>
@@ -1487,19 +1487,19 @@
         <v>525836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>500959</v>
+        <v>501546</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>549196</v>
+        <v>547633</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7361705031358918</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7013438490450918</v>
+        <v>0.7021651651355949</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7688749368373674</v>
+        <v>0.7666869091423913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1511</v>
@@ -1508,19 +1508,19 @@
         <v>1539141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1501449</v>
+        <v>1502391</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1574500</v>
+        <v>1571166</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.788244156884247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7689407860340522</v>
+        <v>0.7694233698714322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8063526844873624</v>
+        <v>0.8046448199564231</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>49075</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36181</v>
+        <v>36944</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62688</v>
+        <v>64284</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.139993024358369</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.103210054900654</v>
+        <v>0.1053875900175946</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1788247847331731</v>
+        <v>0.1833789728267343</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>130</v>
@@ -1633,19 +1633,19 @@
         <v>137459</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>114664</v>
+        <v>116216</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>159700</v>
+        <v>158168</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2416854681008908</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2016062828627625</v>
+        <v>0.2043358748110141</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2807906981305091</v>
+        <v>0.2780973214606561</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -1654,19 +1654,19 @@
         <v>186534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>161820</v>
+        <v>160924</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>210749</v>
+        <v>210142</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2029075432577547</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1760243495257558</v>
+        <v>0.1750487370577586</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2292475734195055</v>
+        <v>0.2285876046925537</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>301480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>287867</v>
+        <v>286271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>314374</v>
+        <v>313611</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.860006975641631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8211752152668269</v>
+        <v>0.8166210271732657</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8967899450993461</v>
+        <v>0.894612409982405</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>409</v>
@@ -1704,19 +1704,19 @@
         <v>431293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>409052</v>
+        <v>410584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>454088</v>
+        <v>452536</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7583145318991092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7192093018694911</v>
+        <v>0.721902678539344</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7983937171372376</v>
+        <v>0.795664125188986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>701</v>
@@ -1725,19 +1725,19 @@
         <v>732773</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>708558</v>
+        <v>709165</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>757487</v>
+        <v>758383</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7970924567422453</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7707524265804946</v>
+        <v>0.7714123953074464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8239756504742443</v>
+        <v>0.8249512629422415</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>44824</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32831</v>
+        <v>33398</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58250</v>
+        <v>58342</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1503162490942672</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.110095809049332</v>
+        <v>0.1119991119766811</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1953385535191957</v>
+        <v>0.1956477037294685</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>287</v>
@@ -1850,19 +1850,19 @@
         <v>291607</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>263203</v>
+        <v>263326</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>323747</v>
+        <v>322016</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2335170055198706</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2107712240539084</v>
+        <v>0.2108703131115066</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2592547410301426</v>
+        <v>0.2578684465345349</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>331</v>
@@ -1871,19 +1871,19 @@
         <v>336431</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>303902</v>
+        <v>305293</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>369090</v>
+        <v>371213</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2174787723481108</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.196450915261958</v>
+        <v>0.1973501608419545</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2385906526552177</v>
+        <v>0.2399631071334703</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>253377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239951</v>
+        <v>239859</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265370</v>
+        <v>264803</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8496837509057329</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8046614464808044</v>
+        <v>0.8043522962705316</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8899041909506681</v>
+        <v>0.8880008880233189</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>951</v>
@@ -1921,19 +1921,19 @@
         <v>957153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>925013</v>
+        <v>926744</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>985557</v>
+        <v>985434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7664829944801295</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7407452589698574</v>
+        <v>0.7421315534654652</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7892287759460916</v>
+        <v>0.7891296868884934</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1213</v>
@@ -1942,19 +1942,19 @@
         <v>1210529</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1177870</v>
+        <v>1175747</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1243058</v>
+        <v>1241667</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7825212276518891</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7614093473447823</v>
+        <v>0.7600368928665299</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.803549084738042</v>
+        <v>0.8026498391580458</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>560346</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>521142</v>
+        <v>515018</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>606627</v>
+        <v>604241</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.171396152069456</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1594043765441981</v>
+        <v>0.1575313316757201</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1855523115571735</v>
+        <v>0.1848224847627073</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>803</v>
@@ -2067,19 +2067,19 @@
         <v>824009</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>775233</v>
+        <v>772007</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>875086</v>
+        <v>874358</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2439928565060782</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2295500685831851</v>
+        <v>0.2285948225360077</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2591170014174055</v>
+        <v>0.2589016029881124</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1352</v>
@@ -2088,19 +2088,19 @@
         <v>1384355</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1314933</v>
+        <v>1319266</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1455610</v>
+        <v>1453568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2082836581651517</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1978387255820409</v>
+        <v>0.198490669447102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2190044044640222</v>
+        <v>0.2186971647407723</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2708959</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2662678</v>
+        <v>2665064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2748163</v>
+        <v>2754287</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.828603847930544</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8144476884428266</v>
+        <v>0.8151775152372925</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.840595623455802</v>
+        <v>0.8424686683242798</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2492</v>
@@ -2138,19 +2138,19 @@
         <v>2553175</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2502098</v>
+        <v>2502826</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2601951</v>
+        <v>2605177</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7560071434939217</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7408829985825944</v>
+        <v>0.7410983970118875</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7704499314168149</v>
+        <v>0.7714051774639923</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5149</v>
@@ -2159,19 +2159,19 @@
         <v>5262134</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5190879</v>
+        <v>5192921</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5331556</v>
+        <v>5327223</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7917163418348483</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.780995595535978</v>
+        <v>0.7813028352592277</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8021612744179594</v>
+        <v>0.801509330552898</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>55041</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42007</v>
+        <v>42545</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71613</v>
+        <v>70386</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1258914052419891</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09608009894694422</v>
+        <v>0.09730989930704068</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1637953929867585</v>
+        <v>0.160989567529614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -2526,19 +2526,19 @@
         <v>81148</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65315</v>
+        <v>65668</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99336</v>
+        <v>98989</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.258060494434299</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2077079489570176</v>
+        <v>0.2088307660425321</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3158996306612705</v>
+        <v>0.3147956450650906</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>122</v>
@@ -2547,19 +2547,19 @@
         <v>136189</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>115179</v>
+        <v>115984</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>162204</v>
+        <v>159011</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1811834974813925</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1532321537685895</v>
+        <v>0.1543022022734117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2157924792779592</v>
+        <v>0.2115448402569544</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>382170</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>365598</v>
+        <v>366825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395204</v>
+        <v>394666</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8741085947580108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8362046070132415</v>
+        <v>0.839010432470386</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9039199010530559</v>
+        <v>0.9026901006929593</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>213</v>
@@ -2597,19 +2597,19 @@
         <v>233306</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>215118</v>
+        <v>215465</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249139</v>
+        <v>248786</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.741939505565701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6841003693387295</v>
+        <v>0.6852043549349094</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7922920510429824</v>
+        <v>0.7911692339574677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>565</v>
@@ -2618,19 +2618,19 @@
         <v>615476</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>589461</v>
+        <v>592654</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>636486</v>
+        <v>635681</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8188165025186075</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7842075207220408</v>
+        <v>0.7884551597430458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8467678462314104</v>
+        <v>0.8456977977265887</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>71208</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54701</v>
+        <v>55334</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86918</v>
+        <v>88543</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1700297763329664</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1306138764829007</v>
+        <v>0.1321257150162838</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2075412969238658</v>
+        <v>0.2114232778167964</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -2743,19 +2743,19 @@
         <v>86654</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71526</v>
+        <v>69096</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105051</v>
+        <v>103216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2580036458258675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2129625699963588</v>
+        <v>0.2057259593659926</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3127798550487384</v>
+        <v>0.3073144041218068</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -2764,19 +2764,19 @@
         <v>157862</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>136829</v>
+        <v>134831</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>183054</v>
+        <v>182873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.209182818353888</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1813121501130841</v>
+        <v>0.1786646308532611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.242564982947219</v>
+        <v>0.2423241739429495</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>347589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>331879</v>
+        <v>330254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364096</v>
+        <v>363463</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8299702236670337</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7924587030761342</v>
+        <v>0.7885767221832036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8693861235170993</v>
+        <v>0.8678742849837159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>224</v>
@@ -2814,19 +2814,19 @@
         <v>249210</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>230813</v>
+        <v>232648</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>264338</v>
+        <v>266768</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7419963541741325</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6872201449512612</v>
+        <v>0.6926855958781933</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7870374300036411</v>
+        <v>0.7942740406340076</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>533</v>
@@ -2835,19 +2835,19 @@
         <v>596799</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>571607</v>
+        <v>571788</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>617832</v>
+        <v>619830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.790817181646112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.757435017052781</v>
+        <v>0.7576758260570504</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8186878498869159</v>
+        <v>0.8213353691467388</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>156095</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133931</v>
+        <v>131682</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181342</v>
+        <v>179548</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2483764544309224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2131093619607611</v>
+        <v>0.2095302525121837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2885489049837858</v>
+        <v>0.2856942289442933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -2960,19 +2960,19 @@
         <v>53396</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39791</v>
+        <v>41594</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66530</v>
+        <v>67691</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.205268747898831</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1529672193285667</v>
+        <v>0.1598980855445859</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.255759381050844</v>
+        <v>0.2602196067977238</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>194</v>
@@ -2981,19 +2981,19 @@
         <v>209491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182269</v>
+        <v>182430</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236924</v>
+        <v>235345</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2357569290668319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2051212491566542</v>
+        <v>0.2053027000660038</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2666294472510408</v>
+        <v>0.264852389855742</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>472366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>447119</v>
+        <v>448913</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>494530</v>
+        <v>496779</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7516235455690776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7114510950162143</v>
+        <v>0.7143057710557067</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.786890638039239</v>
+        <v>0.7904697474878164</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>193</v>
@@ -3031,19 +3031,19 @@
         <v>206733</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>193599</v>
+        <v>192438</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>220338</v>
+        <v>218535</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.794731252101169</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7442406189491559</v>
+        <v>0.7397803932022763</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8470327806714335</v>
+        <v>0.8401019144554142</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>640</v>
@@ -3052,19 +3052,19 @@
         <v>679099</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>651666</v>
+        <v>653245</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>706321</v>
+        <v>706160</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7642430709331681</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7333705527489591</v>
+        <v>0.7351476101442578</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7948787508433457</v>
+        <v>0.794697299933996</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>254649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>226453</v>
+        <v>228445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>284546</v>
+        <v>284202</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2200403462236058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1956762949823537</v>
+        <v>0.1973979826188441</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2458745107394837</v>
+        <v>0.2455768910279618</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>206</v>
@@ -3177,19 +3177,19 @@
         <v>221811</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>195470</v>
+        <v>198158</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>247872</v>
+        <v>251327</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2893221327051856</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2549639225687104</v>
+        <v>0.258470058246602</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3233149742046374</v>
+        <v>0.3278223261301226</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>442</v>
@@ -3198,19 +3198,19 @@
         <v>476460</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>435864</v>
+        <v>435071</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>514771</v>
+        <v>518272</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2476479602108827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2265478222415763</v>
+        <v>0.2261356640829846</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2675608455702833</v>
+        <v>0.2693802942015658</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>902634</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>872737</v>
+        <v>873081</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>930830</v>
+        <v>928838</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7799596537763942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7541254892605168</v>
+        <v>0.7544231089720385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8043237050176463</v>
+        <v>0.8026020173811562</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>505</v>
@@ -3248,19 +3248,19 @@
         <v>544846</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>518785</v>
+        <v>515330</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>571187</v>
+        <v>568499</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7106778672948144</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6766850257953624</v>
+        <v>0.6721776738698775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7450360774312895</v>
+        <v>0.741529941753398</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1350</v>
@@ -3269,19 +3269,19 @@
         <v>1447480</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1409169</v>
+        <v>1405668</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1488076</v>
+        <v>1488869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7523520397891174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7324391544297167</v>
+        <v>0.7306197057984347</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7734521777584238</v>
+        <v>0.7738643359170158</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>108960</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89531</v>
+        <v>91559</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>127312</v>
+        <v>130312</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2133983239415154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1753451644125222</v>
+        <v>0.1793185357606172</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.24934072706479</v>
+        <v>0.2552156189572238</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -3394,19 +3394,19 @@
         <v>231773</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>202419</v>
+        <v>205761</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>258627</v>
+        <v>259182</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3047392237153307</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2661435688970497</v>
+        <v>0.2705375412355415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3400467476616188</v>
+        <v>0.3407767333506199</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>321</v>
@@ -3415,19 +3415,19 @@
         <v>340734</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>307114</v>
+        <v>308684</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>371495</v>
+        <v>377079</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2680496188665008</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2416017772910949</v>
+        <v>0.2428370292138416</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2922490785248218</v>
+        <v>0.2966418257318192</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>401636</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>383284</v>
+        <v>380284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>421065</v>
+        <v>419037</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7866016760584846</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7506592729352101</v>
+        <v>0.7447843810427762</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8246548355874779</v>
+        <v>0.8206814642393829</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>487</v>
@@ -3465,19 +3465,19 @@
         <v>528790</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>501936</v>
+        <v>501381</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>558144</v>
+        <v>554802</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6952607762846692</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6599532523383813</v>
+        <v>0.6592232666493807</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.733856431102951</v>
+        <v>0.7294624587644586</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>868</v>
@@ -3486,19 +3486,19 @@
         <v>930425</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>899664</v>
+        <v>894080</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>964045</v>
+        <v>962475</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7319503811334992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7077509214751783</v>
+        <v>0.7033581742681808</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7583982227089053</v>
+        <v>0.7571629707861585</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>59665</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46954</v>
+        <v>47235</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73789</v>
+        <v>73861</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2235618912507623</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1759338297232859</v>
+        <v>0.1769870126851904</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2764863059612102</v>
+        <v>0.2767554789692931</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>285</v>
@@ -3611,19 +3611,19 @@
         <v>302533</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>275901</v>
+        <v>273613</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>337068</v>
+        <v>335378</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2727120363780862</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2487050518137575</v>
+        <v>0.2466425539105431</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3038424527244897</v>
+        <v>0.3023193906143436</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>344</v>
@@ -3632,19 +3632,19 @@
         <v>362198</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>329020</v>
+        <v>329703</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>395802</v>
+        <v>399927</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2631807406811176</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2390731835115237</v>
+        <v>0.2395694336494406</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2875977666746965</v>
+        <v>0.2905953631687716</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>207217</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>193093</v>
+        <v>193021</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>219928</v>
+        <v>219647</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7764381087492377</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7235136940387901</v>
+        <v>0.7232445210307069</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8240661702767145</v>
+        <v>0.8230129873148095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>759</v>
@@ -3682,19 +3682,19 @@
         <v>806818</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>772283</v>
+        <v>773973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>833450</v>
+        <v>835738</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7272879636219138</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6961575472755096</v>
+        <v>0.6976806093856565</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7512949481862424</v>
+        <v>0.7533574460894569</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>965</v>
@@ -3703,19 +3703,19 @@
         <v>1014035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>980431</v>
+        <v>976306</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1047213</v>
+        <v>1046530</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7368192593188824</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7124022333253035</v>
+        <v>0.7094046368312283</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7609268164884763</v>
+        <v>0.7604305663505594</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>705618</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>655841</v>
+        <v>658284</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>755082</v>
+        <v>755836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2063674922595458</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1918096680290585</v>
+        <v>0.1925242193813873</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2208339510141541</v>
+        <v>0.2210545946844921</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>906</v>
@@ -3828,19 +3828,19 @@
         <v>977317</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>922066</v>
+        <v>915087</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1032982</v>
+        <v>1025469</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2755317820010786</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2599550753428246</v>
+        <v>0.2579876808903164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.291225220335508</v>
+        <v>0.2891073155210215</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1568</v>
@@ -3849,19 +3849,19 @@
         <v>1682934</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1610412</v>
+        <v>1607152</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1756382</v>
+        <v>1760489</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.241584020000707</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2311735458480021</v>
+        <v>0.2307055383926932</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2521274006741105</v>
+        <v>0.25271690236197</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2713611</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2664147</v>
+        <v>2663393</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2763388</v>
+        <v>2760945</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7936325077404542</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.779166048985846</v>
+        <v>0.7789454053155078</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8081903319709417</v>
+        <v>0.8074757806186126</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2381</v>
@@ -3899,19 +3899,19 @@
         <v>2569703</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2514038</v>
+        <v>2521551</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2624954</v>
+        <v>2631933</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7244682179989215</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.708774779664492</v>
+        <v>0.7108926844789785</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7400449246571754</v>
+        <v>0.7420123191096838</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4921</v>
@@ -3920,19 +3920,19 @@
         <v>5283315</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5209867</v>
+        <v>5205760</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5355837</v>
+        <v>5359097</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.758415979999293</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7478725993258895</v>
+        <v>0.7472830976380299</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7688264541519978</v>
+        <v>0.7692944616073067</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>64241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49384</v>
+        <v>48795</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79235</v>
+        <v>79188</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.149714006883622</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1150898328544373</v>
+        <v>0.1137173515397372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.184656616402731</v>
+        <v>0.1845485792147783</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -4287,19 +4287,19 @@
         <v>76102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61515</v>
+        <v>61496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92637</v>
+        <v>92571</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2209901599836551</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1786327046668072</v>
+        <v>0.1785772179195549</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2690052895463781</v>
+        <v>0.2688153226286165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>131</v>
@@ -4308,19 +4308,19 @@
         <v>140343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119527</v>
+        <v>118497</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>166260</v>
+        <v>163504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1814483115365438</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1545349571636701</v>
+        <v>0.153203373784254</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2149561063433598</v>
+        <v>0.2113925677361953</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>364851</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>349857</v>
+        <v>349904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>379708</v>
+        <v>380297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.850285993116378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.815343383597269</v>
+        <v>0.8154514207852215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8849101671455626</v>
+        <v>0.8862826484602627</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>256</v>
@@ -4358,19 +4358,19 @@
         <v>268266</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251731</v>
+        <v>251797</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282853</v>
+        <v>282872</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7790098400163449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7309947104536219</v>
+        <v>0.7311846773713835</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8213672953331929</v>
+        <v>0.8214227820804452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>595</v>
@@ -4379,19 +4379,19 @@
         <v>633117</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>607200</v>
+        <v>609956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>653933</v>
+        <v>654963</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8185516884634562</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7850438936566397</v>
+        <v>0.7886074322638047</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8454650428363298</v>
+        <v>0.846796626215746</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>55047</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41390</v>
+        <v>42269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70571</v>
+        <v>70544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1466734219816367</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1102842773400841</v>
+        <v>0.1126272123796674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1880392851906565</v>
+        <v>0.1879657592504726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -4504,19 +4504,19 @@
         <v>82339</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66278</v>
+        <v>65701</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98651</v>
+        <v>100008</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2217063194560034</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1784601559132614</v>
+        <v>0.176907431001241</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2656263963342257</v>
+        <v>0.2692813802818372</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -4525,19 +4525,19 @@
         <v>137386</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116008</v>
+        <v>117437</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159135</v>
+        <v>161214</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1839933633828928</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.155362970030012</v>
+        <v>0.1572766099736193</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2131212241087801</v>
+        <v>0.2159048018772223</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>320253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>304729</v>
+        <v>304756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>333910</v>
+        <v>333031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8533265780183633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8119607148093435</v>
+        <v>0.8120342407495276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8897157226599161</v>
+        <v>0.8873727876203326</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>273</v>
@@ -4575,19 +4575,19 @@
         <v>289050</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>272738</v>
+        <v>271381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>305111</v>
+        <v>305688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7782936805439966</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7343736036657744</v>
+        <v>0.730718619718163</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8215398440867386</v>
+        <v>0.823092568998759</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>573</v>
@@ -4596,19 +4596,19 @@
         <v>609303</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>587554</v>
+        <v>585475</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>630681</v>
+        <v>629252</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8160066366171072</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7868787758912198</v>
+        <v>0.7840951981227777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8446370299699878</v>
+        <v>0.842723390026381</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>90455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74234</v>
+        <v>73482</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111559</v>
+        <v>108197</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1733148609291057</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.142233487936425</v>
+        <v>0.140793890021663</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2137489614381476</v>
+        <v>0.2073078128319067</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -4721,19 +4721,19 @@
         <v>31141</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22136</v>
+        <v>21407</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42986</v>
+        <v>41832</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1893023413973715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1345577588657586</v>
+        <v>0.1301318375533124</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2613031182374005</v>
+        <v>0.2542869392655974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -4742,19 +4742,19 @@
         <v>121597</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102200</v>
+        <v>103332</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144446</v>
+        <v>143849</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1771463969975899</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1488888588407981</v>
+        <v>0.1505376694163466</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2104345052638073</v>
+        <v>0.2095638622948369</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>431459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>410355</v>
+        <v>413717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>447680</v>
+        <v>448432</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8266851390708944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7862510385618524</v>
+        <v>0.7926921871680934</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.857766512063575</v>
+        <v>0.859206109978337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -4792,19 +4792,19 @@
         <v>133365</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121520</v>
+        <v>122674</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142370</v>
+        <v>143099</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8106976586026284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7386968817625995</v>
+        <v>0.7457130607344027</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8654422411342413</v>
+        <v>0.8698681624466875</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>541</v>
@@ -4813,19 +4813,19 @@
         <v>564823</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>541974</v>
+        <v>542571</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>584220</v>
+        <v>583088</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8228536030024102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.789565494736194</v>
+        <v>0.7904361377051634</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8511111411592022</v>
+        <v>0.8494623305836534</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>191658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>166914</v>
+        <v>166356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>218441</v>
+        <v>217334</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1673785972260943</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1457695929633152</v>
+        <v>0.145281631704372</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.190768411290702</v>
+        <v>0.1898022708371411</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>192</v>
@@ -4938,19 +4938,19 @@
         <v>201620</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177188</v>
+        <v>177641</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>226819</v>
+        <v>227329</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2441283479955133</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.214545142133847</v>
+        <v>0.215093887735978</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2746401387709819</v>
+        <v>0.2752584536253379</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>375</v>
@@ -4959,19 +4959,19 @@
         <v>393278</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>358485</v>
+        <v>357822</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>430777</v>
+        <v>434394</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1995389041965512</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1818858641962021</v>
+        <v>0.1815497135813636</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2185648759463643</v>
+        <v>0.2204002318441981</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>953398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926615</v>
+        <v>927722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>978142</v>
+        <v>978700</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8326214027739057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8092315887092978</v>
+        <v>0.8101977291628587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8542304070366847</v>
+        <v>0.854718368295628</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>606</v>
@@ -5009,19 +5009,19 @@
         <v>624256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>599057</v>
+        <v>598547</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>648688</v>
+        <v>648235</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7558716520044867</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7253598612290182</v>
+        <v>0.7247415463746621</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7854548578661534</v>
+        <v>0.7849061122640224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1522</v>
@@ -5030,19 +5030,19 @@
         <v>1577654</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1540155</v>
+        <v>1536538</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1612447</v>
+        <v>1613110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8004610958034488</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7814351240536359</v>
+        <v>0.7795997681558019</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8181141358037981</v>
+        <v>0.8184502864186367</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>99894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82668</v>
+        <v>80917</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119802</v>
+        <v>118281</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1620210253816879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1340810491977567</v>
+        <v>0.1312408907369424</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1943105656329735</v>
+        <v>0.1918435697289871</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -5155,19 +5155,19 @@
         <v>151634</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>129834</v>
+        <v>130544</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>174560</v>
+        <v>176763</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2053978693442806</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1758683219096839</v>
+        <v>0.1768308457987008</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2364536195551071</v>
+        <v>0.239437383201588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>236</v>
@@ -5176,19 +5176,19 @@
         <v>251528</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>221737</v>
+        <v>224864</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>282291</v>
+        <v>282213</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1856576124385664</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1636686421989435</v>
+        <v>0.1659767373924473</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2083646654130503</v>
+        <v>0.2083072199228151</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>516656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>496748</v>
+        <v>498269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>533882</v>
+        <v>535633</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8379789746183121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8056894343670266</v>
+        <v>0.8081564302710128</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8659189508022436</v>
+        <v>0.8687591092630577</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>557</v>
@@ -5226,19 +5226,19 @@
         <v>586610</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>563684</v>
+        <v>561481</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>608410</v>
+        <v>607700</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7946021306557194</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7635463804448932</v>
+        <v>0.7605626167984124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8241316780903162</v>
+        <v>0.8231691542012991</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1056</v>
@@ -5247,19 +5247,19 @@
         <v>1103266</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1072503</v>
+        <v>1072581</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1133057</v>
+        <v>1129930</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8143423875614336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7916353345869491</v>
+        <v>0.791692780077184</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8363313578010563</v>
+        <v>0.8340232626075526</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>63295</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50357</v>
+        <v>48635</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78857</v>
+        <v>78531</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2204281829803829</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1753712345511849</v>
+        <v>0.1693759355780536</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2746233684208495</v>
+        <v>0.2734872824994657</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -5372,19 +5372,19 @@
         <v>218644</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189646</v>
+        <v>192327</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>246789</v>
+        <v>244711</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2023064937321374</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1754751978241925</v>
+        <v>0.1779564567808199</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2283485785541731</v>
+        <v>0.2264265690693168</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -5393,19 +5393,19 @@
         <v>281938</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>251507</v>
+        <v>252973</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>315261</v>
+        <v>312412</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2061105431607926</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1838636561242468</v>
+        <v>0.1849356896503175</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2304707854965639</v>
+        <v>0.2283885417435106</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>223850</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>208288</v>
+        <v>208614</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236788</v>
+        <v>238510</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7795718170196171</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7253766315791507</v>
+        <v>0.7265127175005343</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.824628765448815</v>
+        <v>0.8306240644219465</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>798</v>
@@ -5443,19 +5443,19 @@
         <v>862110</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>833965</v>
+        <v>836043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>891108</v>
+        <v>888427</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7976935062678626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.771651421445827</v>
+        <v>0.7735734309306833</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8245248021758076</v>
+        <v>0.8220435432191803</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1010</v>
@@ -5464,19 +5464,19 @@
         <v>1085961</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1052638</v>
+        <v>1055487</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1116392</v>
+        <v>1114926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7938894568392074</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.769529214503436</v>
+        <v>0.7716114582564895</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8161363438757532</v>
+        <v>0.8150643103496825</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>564590</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>523319</v>
+        <v>522772</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>609939</v>
+        <v>611142</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1672830577961986</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1550547853102958</v>
+        <v>0.154892730191801</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1807195429630692</v>
+        <v>0.1810759609841095</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>708</v>
@@ -5589,19 +5589,19 @@
         <v>761480</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>712519</v>
+        <v>712741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>808523</v>
+        <v>808851</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.216014193317545</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2021252229994093</v>
+        <v>0.2021881064278784</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2293593866408491</v>
+        <v>0.2294524917727154</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1238</v>
@@ -5610,19 +5610,19 @@
         <v>1326069</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1251115</v>
+        <v>1260561</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1388738</v>
+        <v>1393365</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1921785815610528</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1813159174783621</v>
+        <v>0.1826848792019965</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2012607359803477</v>
+        <v>0.201931259329881</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2810466</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2765117</v>
+        <v>2763914</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2851737</v>
+        <v>2852284</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8327169422038013</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8192804570369306</v>
+        <v>0.8189240390158904</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8449452146897041</v>
+        <v>0.8451072698081991</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2613</v>
@@ -5660,19 +5660,19 @@
         <v>2763657</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2716614</v>
+        <v>2716286</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2812618</v>
+        <v>2812396</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.783985806682455</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7706406133591509</v>
+        <v>0.7705475082272846</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7978747770005907</v>
+        <v>0.7978118935721216</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5297</v>
@@ -5681,19 +5681,19 @@
         <v>5574124</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5511455</v>
+        <v>5506828</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5649078</v>
+        <v>5639632</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8078214184389472</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7987392640196523</v>
+        <v>0.7980687406701191</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8186840825216382</v>
+        <v>0.8173151207980037</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>130751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109386</v>
+        <v>108675</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150480</v>
+        <v>151863</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2383155211847635</v>
+        <v>0.2383155211847636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1993732490414438</v>
+        <v>0.1980780515240628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2742744507958658</v>
+        <v>0.276795519088134</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>159</v>
@@ -6048,19 +6048,19 @@
         <v>117961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101644</v>
+        <v>100812</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134603</v>
+        <v>135258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2418909596965315</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2084312005207266</v>
+        <v>0.2067256121445254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2760154733738718</v>
+        <v>0.277359919958973</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>283</v>
@@ -6069,19 +6069,19 @@
         <v>248712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>224182</v>
+        <v>223663</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>279231</v>
+        <v>274960</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2399980361869072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.216327042834117</v>
+        <v>0.2158263796282608</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.269447798108218</v>
+        <v>0.2653256602090087</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>417897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398168</v>
+        <v>396785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>439262</v>
+        <v>439973</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7616844788152364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7257255492041341</v>
+        <v>0.7232044809118661</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8006267509585561</v>
+        <v>0.8019219484759369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>526</v>
@@ -6119,19 +6119,19 @@
         <v>369702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>353060</v>
+        <v>352405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>386019</v>
+        <v>386851</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7581090403034686</v>
+        <v>0.7581090403034685</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7239845266261283</v>
+        <v>0.7226400800410272</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7915687994792736</v>
+        <v>0.7932743878554748</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>955</v>
@@ -6140,19 +6140,19 @@
         <v>787598</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757079</v>
+        <v>761350</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>812128</v>
+        <v>812647</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7600019638130927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7305522018917819</v>
+        <v>0.7346743397909913</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7836729571658831</v>
+        <v>0.7841736203717389</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>82222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67148</v>
+        <v>64664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100660</v>
+        <v>98488</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1701577616893067</v>
+        <v>0.1701577616893066</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.138962052913005</v>
+        <v>0.1338204552161696</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2083138290020998</v>
+        <v>0.2038184233751724</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>145</v>
@@ -6265,19 +6265,19 @@
         <v>109159</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92750</v>
+        <v>94284</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126012</v>
+        <v>125923</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2585063230001557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2196462245242973</v>
+        <v>0.2232788908326253</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2984164525009634</v>
+        <v>0.2982040987625216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>226</v>
@@ -6286,19 +6286,19 @@
         <v>191382</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>169147</v>
+        <v>167749</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>216621</v>
+        <v>217358</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2113589700858663</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1868035797194544</v>
+        <v>0.1852593234767559</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2392326610795469</v>
+        <v>0.240047199863371</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>400990</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>382552</v>
+        <v>384724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416064</v>
+        <v>418548</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8298422383106935</v>
+        <v>0.8298422383106934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7916861709979003</v>
+        <v>0.7961815766248276</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.861037947086995</v>
+        <v>0.8661795447838304</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>444</v>
@@ -6336,19 +6336,19 @@
         <v>313111</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296258</v>
+        <v>296347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329520</v>
+        <v>327986</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7414936769998444</v>
+        <v>0.7414936769998443</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.701583547499037</v>
+        <v>0.7017959012374784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7803537754757028</v>
+        <v>0.7767211091673747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>844</v>
@@ -6357,19 +6357,19 @@
         <v>714100</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>688861</v>
+        <v>688124</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736335</v>
+        <v>737733</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7886410299141335</v>
+        <v>0.7886410299141337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7607673389204528</v>
+        <v>0.7599528001366289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8131964202805455</v>
+        <v>0.8147406765232438</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>96727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78498</v>
+        <v>80897</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115286</v>
+        <v>116476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.205098168929894</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1664456280235605</v>
+        <v>0.1715319531913146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.244450459857675</v>
+        <v>0.2469738611285473</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -6482,19 +6482,19 @@
         <v>58832</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48059</v>
+        <v>48525</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70286</v>
+        <v>69656</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3149365304130975</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2572680326868997</v>
+        <v>0.2597602908103507</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3762508239590419</v>
+        <v>0.3728795751780401</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>182</v>
@@ -6503,19 +6503,19 @@
         <v>155558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134381</v>
+        <v>135018</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178256</v>
+        <v>177689</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2362613305600542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2040966552944697</v>
+        <v>0.2050651661482715</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2707348817055108</v>
+        <v>0.2698733906849308</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>374885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>356326</v>
+        <v>355136</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>393114</v>
+        <v>390715</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7949018310701061</v>
+        <v>0.794901831070106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.755549540142325</v>
+        <v>0.7530261388714526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8335543719764396</v>
+        <v>0.8284680468086854</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>204</v>
@@ -6553,19 +6553,19 @@
         <v>127973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116519</v>
+        <v>117149</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138746</v>
+        <v>138280</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6850634695869025</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6237491760409581</v>
+        <v>0.6271204248219597</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7427319673131004</v>
+        <v>0.7402397091896491</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>594</v>
@@ -6574,19 +6574,19 @@
         <v>502858</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>480160</v>
+        <v>480727</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>524035</v>
+        <v>523398</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7637386694399458</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7292651182944894</v>
+        <v>0.730126609315069</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7959033447055301</v>
+        <v>0.7949348338517285</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>250508</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>219717</v>
+        <v>222360</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>285966</v>
+        <v>286886</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2213273444532565</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1941231071748659</v>
+        <v>0.1964586485894611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2526547799220906</v>
+        <v>0.2534679233957608</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -6699,19 +6699,19 @@
         <v>245298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>221150</v>
+        <v>223173</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>269806</v>
+        <v>269327</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2848289895707766</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2567897670378954</v>
+        <v>0.2591380276571636</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3132872972577411</v>
+        <v>0.3127304885211541</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>580</v>
@@ -6720,19 +6720,19 @@
         <v>495806</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>457951</v>
+        <v>457715</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>535772</v>
+        <v>535582</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2487668098865178</v>
+        <v>0.2487668098865179</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2297736649100763</v>
+        <v>0.22965496034707</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2688193608827099</v>
+        <v>0.2687245130115056</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>881335</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>845877</v>
+        <v>844957</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>912126</v>
+        <v>909483</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7786726555467433</v>
+        <v>0.7786726555467435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7473452200779093</v>
+        <v>0.7465320766042383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.805876892825134</v>
+        <v>0.803541351410539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>891</v>
@@ -6770,19 +6770,19 @@
         <v>615913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>591405</v>
+        <v>591884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>640061</v>
+        <v>638038</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7151710104292235</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6867127027422588</v>
+        <v>0.687269511478846</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7432102329621045</v>
+        <v>0.7408619723428362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1768</v>
@@ -6791,19 +6791,19 @@
         <v>1497248</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1457282</v>
+        <v>1457472</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1535103</v>
+        <v>1535339</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7512331901134821</v>
+        <v>0.7512331901134823</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.73118063911729</v>
+        <v>0.7312754869884944</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7702263350899236</v>
+        <v>0.77034503965293</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>109341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91484</v>
+        <v>91389</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>131163</v>
+        <v>130239</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1925141780092231</v>
+        <v>0.192514178009223</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1610738139338334</v>
+        <v>0.1609057664188066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2309354704779759</v>
+        <v>0.2293092835817277</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>311</v>
@@ -6916,19 +6916,19 @@
         <v>199245</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>179511</v>
+        <v>178154</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220779</v>
+        <v>220520</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2401749867008532</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2163871119764309</v>
+        <v>0.2147510008547477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.266132621917191</v>
+        <v>0.2658203572326607</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>427</v>
@@ -6937,19 +6937,19 @@
         <v>308586</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>280671</v>
+        <v>278078</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>338856</v>
+        <v>337272</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2208056090336516</v>
+        <v>0.2208056090336515</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2008313190542149</v>
+        <v>0.1989762491285542</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2424647882509621</v>
+        <v>0.241331261438634</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>458623</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>436801</v>
+        <v>437725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476480</v>
+        <v>476575</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8074858219907771</v>
+        <v>0.8074858219907768</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7690645295220242</v>
+        <v>0.7706907164182725</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8389261860661665</v>
+        <v>0.8390942335811935</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>977</v>
@@ -6987,19 +6987,19 @@
         <v>630338</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>608804</v>
+        <v>609063</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>650072</v>
+        <v>651429</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7598250132991469</v>
+        <v>0.7598250132991468</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7338673780828087</v>
+        <v>0.7341796427673395</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7836128880235691</v>
+        <v>0.7852489991452524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1408</v>
@@ -7008,19 +7008,19 @@
         <v>1088960</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1058690</v>
+        <v>1060274</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1116875</v>
+        <v>1119468</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7791943909663486</v>
+        <v>0.7791943909663485</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.757535211749038</v>
+        <v>0.758668738561366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7991686809457852</v>
+        <v>0.8010237508714461</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>42377</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26253</v>
+        <v>26772</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62730</v>
+        <v>64084</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.178635550645403</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1106648667306026</v>
+        <v>0.1128544321385847</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2644273362044265</v>
+        <v>0.2701380008688231</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>250</v>
@@ -7133,19 +7133,19 @@
         <v>175211</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155028</v>
+        <v>152515</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>201277</v>
+        <v>196528</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2082218151774765</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1842361955789128</v>
+        <v>0.181249441166907</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2391987575657974</v>
+        <v>0.2335544645114516</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>270</v>
@@ -7154,19 +7154,19 @@
         <v>217589</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>190805</v>
+        <v>189871</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>249460</v>
+        <v>246645</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2017151552150493</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1768854588501165</v>
+        <v>0.1760193522995205</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2312618495148775</v>
+        <v>0.228651929977526</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>194851</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174498</v>
+        <v>173144</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>210975</v>
+        <v>210456</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.821364449354597</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7355726637955735</v>
+        <v>0.7298619991311767</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8893351332693974</v>
+        <v>0.8871455678614152</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>907</v>
@@ -7204,19 +7204,19 @@
         <v>666253</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>640187</v>
+        <v>644936</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>686436</v>
+        <v>688949</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7917781848225235</v>
+        <v>0.7917781848225236</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.760801242434203</v>
+        <v>0.7664455354885484</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8157638044210873</v>
+        <v>0.8187505588330929</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>999</v>
@@ -7225,19 +7225,19 @@
         <v>861103</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>829232</v>
+        <v>832047</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>887887</v>
+        <v>888821</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7982848447849507</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7687381504851225</v>
+        <v>0.7713480700224743</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8231145411498836</v>
+        <v>0.8239806477004796</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>711926</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>659870</v>
+        <v>660007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>773123</v>
+        <v>765899</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2069249241264911</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1917946394851584</v>
+        <v>0.1918344357321168</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2247120746394152</v>
+        <v>0.2226123681445764</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1288</v>
@@ -7350,19 +7350,19 @@
         <v>905707</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>860928</v>
+        <v>859015</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>953895</v>
+        <v>955512</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.249574968960467</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2372357969469171</v>
+        <v>0.2367087594809011</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2628536383832043</v>
+        <v>0.2632991665702418</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1968</v>
@@ -7371,19 +7371,19 @@
         <v>1617633</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1542348</v>
+        <v>1552576</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1684008</v>
+        <v>1688830</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2288185251024402</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2181692714135241</v>
+        <v>0.2196160917016847</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2382073731012036</v>
+        <v>0.2388895823019333</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2728579</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2667382</v>
+        <v>2674606</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2780635</v>
+        <v>2780498</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7930750758735089</v>
+        <v>0.7930750758735088</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7752879253605849</v>
+        <v>0.7773876318554237</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8082053605148416</v>
+        <v>0.8081655642678832</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3949</v>
@@ -7421,19 +7421,19 @@
         <v>2723289</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2675101</v>
+        <v>2673484</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2768068</v>
+        <v>2769981</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7504250310395331</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7371463616167957</v>
+        <v>0.7367008334297581</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7627642030530827</v>
+        <v>0.7632912405190991</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6568</v>
@@ -7442,19 +7442,19 @@
         <v>5451869</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5385494</v>
+        <v>5380672</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5527154</v>
+        <v>5516926</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7711814748975597</v>
+        <v>0.7711814748975598</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7617926268987962</v>
+        <v>0.7611104176980668</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7818307285864758</v>
+        <v>0.7803839082983154</v>
       </c>
     </row>
     <row r="24">
